--- a/src/test/resources/ExcelData/Users_ExcelData.xlsx
+++ b/src/test/resources/ExcelData/Users_ExcelData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naran\eclipse-workspace\UserAPI_RestAssured_BDD\src\test\resources\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naran\eclipse-workspace\RestAssured_BDD\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3FF0B3-8B24-477F-B051-33F5225E6FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A253D7-377E-4A35-9653-0829CC094C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="283" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="283" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GET" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="859">
   <si>
     <t>UserID</t>
   </si>
@@ -2575,25 +2575,6 @@
   </si>
   <si>
     <t>H4</t>
-  </si>
-  <si>
-    <t>{
-    "timestamp": "2022-04-17T00:12:38.922+00:00",
-    "message": "Failed to create new user, as 'Name' value should be ',' separated !! ",
-    "details": "uri=/Users"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "user_id": "U1059",
-    "name": "David,Joe",
-    "phone_number": 63612912,
-    "location": "WA",
-    "time_zone": "PST",
-    "linkedin_url": "www.linkedin.com",
-    "visa_status": "H4",
-    "message_response": "Successfully Created !!"
-}</t>
   </si>
   <si>
     <t>User Id</t>
@@ -2624,13 +2605,6 @@
   </si>
   <si>
     <t>{
-    "timestamp": "2022-04-17T01:42:04.985+00:00",
-    "message": "User ID-&gt; U00 Not Found !!",
-    "details": "uri=/Users/U00"
-}</t>
-  </si>
-  <si>
-    <t>{
     "timestamp": "2022-04-17T02:25:08.764+00:00",
     "message": "User(id- U00) Not Found !!",
     "details": "uri=/Users/U00"
@@ -2640,6 +2614,54 @@
     <t>{
     "user_ id": "U934",
     "message_response": "The record has been deleted !!"
+}</t>
+  </si>
+  <si>
+    <t>David,Joee</t>
+  </si>
+  <si>
+    <t>{
+    "user_id": "U1209",
+    "name": "David,Joee",
+    "phone_number": 62712032,
+    "location": "WA",
+    "time_zone": "PST",
+    "linkedin_url": "www.linkedin.com",
+    "visa_status": "H4",
+    "message_response": "Successfully Created !!"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2022-04-21T20:43:34.503+00:00",
+    "message": "Failed to create new user, as 'Name' value should be ',' separated !! ",
+    "details": "uri=/Users"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2022-04-21T20:50:06.605+00:00",
+    "message": "User ID-&gt; U00 Not Found !!",
+    "details": "uri=/Users/U00"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "user_id": "U997",
+    "name": "David,Joe",
+    "phone_number": 63612092,
+    "location": "WA",
+    "time_zone": "PST",
+    "linkedin_url": "www.linkedin.com",
+    "visa_status": "H4",
+    "message_response": "Successfully Updated !!"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "timestamp": "2022-04-21T20:51:21.603+00:00",
+    "message": "User ID-&gt; U00 Not Found !!",
+    "details": "uri=/Users/U00"
 }</t>
   </si>
 </sst>
@@ -2647,6 +2669,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2969,9 +2992,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.3984375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.73046875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="33.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -12769,7 +12792,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="108.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="108.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -12821,17 +12844,17 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.46484375" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="194.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.19921875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.73046875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.46484375"/>
+    <col min="7" max="8" customWidth="true" width="15.46484375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="194.19921875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -12868,10 +12891,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>853</v>
       </c>
       <c r="C2">
-        <v>63612912</v>
+        <v>62712032</v>
       </c>
       <c r="D2" t="s">
         <v>65</v>
@@ -12892,7 +12915,7 @@
         <v>201</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
@@ -12924,7 +12947,7 @@
         <v>400</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -12937,19 +12960,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E245279-4F3C-4075-9978-E54BB2D91FAE}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="68.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.73046875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="68.1328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C1" t="s">
         <v>827</v>
@@ -12984,13 +13007,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>64</v>
       </c>
       <c r="D2">
-        <v>63612012</v>
+        <v>63612092</v>
       </c>
       <c r="E2" t="s">
         <v>65</v>
@@ -13007,11 +13030,11 @@
       <c r="I2" t="s">
         <v>843</v>
       </c>
-      <c r="J2">
-        <v>201</v>
+      <c r="J2" t="n">
+        <v>201.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="71.25" x14ac:dyDescent="0.45">
@@ -13019,7 +13042,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C3" t="s">
         <v>837</v>
@@ -13042,11 +13065,11 @@
       <c r="I3" t="s">
         <v>842</v>
       </c>
-      <c r="J3">
-        <v>404</v>
+      <c r="J3" t="n">
+        <v>404.0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -13058,14 +13081,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEA680E-A70A-48A6-BF37-5EDA7D5F8F81}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="106.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.53125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="106.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -13076,10 +13099,10 @@
         <v>839</v>
       </c>
       <c r="D1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -13096,15 +13119,15 @@
         <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C3" t="s">
         <v>842</v>
@@ -13113,7 +13136,7 @@
         <v>404</v>
       </c>
       <c r="E3" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
